--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\audiophile-ecommerce\audiophile-ecom-frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786D6DD7-A28B-4F09-8E41-45B16D57286E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E667BBA-5198-4E8F-A5F9-7D57B25C8295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30990" yWindow="2655" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30990" yWindow="2250" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -398,18 +398,18 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>168</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>768</v>
+        <v>992</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
       </c>
       <c r="D8">
         <f>(D5-D6)/(B5-B6)*100</f>
-        <v>10.119047619047619</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -430,7 +430,7 @@
       </c>
       <c r="D9">
         <f>D6-B6*(D5-D6)/(B5-B6)</f>
-        <v>22.285714285714292</v>
+        <v>25.714285714285722</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\audiophile-ecommerce\audiophile-ecom-frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E667BBA-5198-4E8F-A5F9-7D57B25C8295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C5ACC-6D96-4B52-A55E-713F1606B95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30990" yWindow="2250" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="2265" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -392,24 +392,27 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>1440</v>
+        <v>768</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>540</v>
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>992</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>380</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -418,7 +421,7 @@
       </c>
       <c r="D8">
         <f>(D5-D6)/(B5-B6)*100</f>
-        <v>35.714285714285715</v>
+        <v>3.0534351145038165</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -430,7 +433,7 @@
       </c>
       <c r="D9">
         <f>D6-B6*(D5-D6)/(B5-B6)</f>
-        <v>25.714285714285722</v>
+        <v>16.549618320610687</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\audiophile-ecommerce\audiophile-ecom-frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C5ACC-6D96-4B52-A55E-713F1606B95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7214BA0A-0B23-4D63-A492-430D38FCFB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="2265" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30990" yWindow="2250" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +501,8 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f>768*0.65</f>
-        <v>499.20000000000005</v>
+        <f>9/20</f>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\audiophile-ecommerce\audiophile-ecom-frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7214BA0A-0B23-4D63-A492-430D38FCFB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F0A5B-C2C2-486D-A9A1-523F3528B148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30990" yWindow="2250" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19830" yWindow="2175" windowWidth="16740" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +501,17 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f>9/20</f>
-        <v>0.45</v>
+        <f>350/1110</f>
+        <v>0.31531531531531531</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5396</v>
+      </c>
+      <c r="C21">
+        <f>B21*0.2</f>
+        <v>1079.2</v>
       </c>
     </row>
   </sheetData>
